--- a/all flawfinder data.xlsx
+++ b/all flawfinder data.xlsx
@@ -5,21 +5,24 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xuyingwang/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xuyingwang/Desktop/csci522paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E49EA4E-9436-5744-AF97-12F776DDBB21}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C09C0E3-5158-3543-9380-2B7E7BA8D870}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-2880" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{04F608B1-515E-AD40-8B8A-2515BC39B75D}"/>
+    <workbookView xWindow="-34780" yWindow="3920" windowWidth="38400" windowHeight="19400" activeTab="2" xr2:uid="{04F608B1-515E-AD40-8B8A-2515BC39B75D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="total line numbers" sheetId="7" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$1</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15304" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15384" uniqueCount="110">
   <si>
     <t>Level</t>
   </si>
@@ -328,7 +331,37 @@
     <t>buffer &amp; char</t>
   </si>
   <si>
-    <t>other</t>
+    <t>Functions</t>
+  </si>
+  <si>
+    <t>Total In Buffer</t>
+  </si>
+  <si>
+    <t>Lines analyzed = 113524</t>
+  </si>
+  <si>
+    <t>putty</t>
+  </si>
+  <si>
+    <t>Hits = 1475</t>
+  </si>
+  <si>
+    <t>Hits = 2776</t>
+  </si>
+  <si>
+    <t>Lines analyzed = 348274</t>
+  </si>
+  <si>
+    <t>nmap</t>
+  </si>
+  <si>
+    <t>Hits = 3387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lines analyzed = 4850313 </t>
+  </si>
+  <si>
+    <t>wireshark</t>
   </si>
 </sst>
 </file>
@@ -462,208 +495,23 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-4220-3B46-B053-976F365D4D9B}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-4220-3B46-B053-976F365D4D9B}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="2.5053147325298127E-3"/>
-                  <c:y val="1.8070016006003716E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-4220-3B46-B053-976F365D4D9B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="2.3925785348673782E-2"/>
-                  <c:y val="8.8923024607031956E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-4220-3B46-B053-976F365D4D9B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
               <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="35000"/>
-                      <a:lumOff val="65000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:round/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet2!$A$2:$A$7</c:f>
@@ -685,7 +533,7 @@
                   <c:v>shell</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>other</c:v>
+                  <c:v>misc</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -712,14 +560,14 @@
                   <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>462</c:v>
+                  <c:v>330</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4220-3B46-B053-976F365D4D9B}"/>
+              <c16:uniqueId val="{00000000-70AF-FF46-B6D3-7912EB738D08}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -730,10 +578,119 @@
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
         </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1798188144"/>
+        <c:axId val="1337757040"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1798188144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1337757040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1337757040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1798188144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -742,18 +699,65 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.80630118110236215"/>
-          <c:y val="0.32601669582968795"/>
-          <c:w val="7.8538516984334089E-2"/>
-          <c:h val="0.46875328083989504"/>
-        </c:manualLayout>
-      </c:layout>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -767,7 +771,1721 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Level 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$33:$A$38</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>buffer</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>format</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>race</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>random</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>shell</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>misc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$33:$B$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2297</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C8B4-A045-9D9C-B6EAE33B216F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Level 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$33:$A$38</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>buffer</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>format</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>race</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>random</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>shell</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>misc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$33:$C$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4131</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>318</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C8B4-A045-9D9C-B6EAE33B216F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Level 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$33:$A$38</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>buffer</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>format</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>race</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>random</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>shell</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>misc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$33:$D$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C8B4-A045-9D9C-B6EAE33B216F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$E$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Level 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$33:$A$38</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>buffer</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>format</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>race</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>random</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>shell</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>misc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$E$33:$E$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C8B4-A045-9D9C-B6EAE33B216F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$F$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Level 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$33:$A$38</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>buffer</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>format</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>race</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>random</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>shell</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>misc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$F$33:$F$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C8B4-A045-9D9C-B6EAE33B216F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1455715392"/>
+        <c:axId val="1371854672"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1455715392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1371854672"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1371854672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1455715392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet6!#REF!</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#REF!</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet6!$A$2:$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>sscanf</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>getopt_long</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>getenv</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>getopt</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>memcpy</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>char</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MultiByteToWideChar</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>TCHAR</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>strcpy</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sprintf</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>wchar_t</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>strlen</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>fgetc</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>read</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>getc</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>strncat</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>strcat</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>strncpy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet6!#REF!</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8424-A245-88FC-1E6757F032E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet6!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Level 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet6!$A$2:$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>sscanf</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>getopt_long</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>getenv</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>getopt</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>memcpy</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>char</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MultiByteToWideChar</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>TCHAR</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>strcpy</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sprintf</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>wchar_t</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>strlen</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>fgetc</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>read</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>getc</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>strncat</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>strcat</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>strncpy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet6!$B$2:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1910</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>172</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8424-A245-88FC-1E6757F032E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet6!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Level 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet6!$A$2:$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>sscanf</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>getopt_long</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>getenv</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>getopt</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>memcpy</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>char</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MultiByteToWideChar</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>TCHAR</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>strcpy</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sprintf</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>wchar_t</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>strlen</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>fgetc</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>read</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>getc</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>strncat</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>strcat</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>strncpy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet6!$C$2:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1805</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8424-A245-88FC-1E6757F032E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet6!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Level 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet6!$A$2:$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>sscanf</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>getopt_long</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>getenv</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>getopt</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>memcpy</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>char</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MultiByteToWideChar</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>TCHAR</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>strcpy</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sprintf</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>wchar_t</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>strlen</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>fgetc</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>read</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>getc</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>strncat</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>strcat</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>strncpy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet6!$D$2:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8424-A245-88FC-1E6757F032E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet6!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Level 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet6!$A$2:$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>sscanf</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>getopt_long</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>getenv</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>getopt</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>memcpy</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>char</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MultiByteToWideChar</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>TCHAR</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>strcpy</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sprintf</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>wchar_t</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>strlen</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>fgetc</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>read</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>getc</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>strncat</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>strcat</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>strncpy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet6!$E$2:$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-8424-A245-88FC-1E6757F032E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet6!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Level 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet6!$A$2:$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>sscanf</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>getopt_long</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>getenv</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>getopt</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>memcpy</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>char</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MultiByteToWideChar</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>TCHAR</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>strcpy</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sprintf</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>wchar_t</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>strlen</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>fgetc</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>read</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>getc</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>strncat</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>strcat</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>strncpy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet6!$F$2:$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-8424-A245-88FC-1E6757F032E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1646231712"/>
+        <c:axId val="1370306448"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1646231712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1370306448"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1370306448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1646231712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -867,8 +2585,88 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -925,7 +2723,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -976,13 +2774,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -993,19 +2784,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -1043,7 +2827,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -1086,23 +2870,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1207,8 +2990,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1340,12 +3123,302 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -1354,6 +3427,721 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1390,23 +4178,100 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8565112-A3C8-C14A-975F-113BDF93A531}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{158AE010-05AC-F844-9A97-ADC4D7DC9639}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6293B89F-97B5-C446-A648-B392E5177AE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>730250</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1EB63E3-BE17-9340-BCEF-101FFBA4A90C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1727,7 +4592,7 @@
   <dimension ref="A1:C7639"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="C2" sqref="C2:C7639"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -85769,10 +88634,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7E2368A-367E-6C48-B479-ABC0A1E73612}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L51" sqref="L51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -85808,7 +88673,30 @@
         <f>COUNTIF(Sheet1!B:B,Sheet2!A2)</f>
         <v>6699</v>
       </c>
-      <c r="H2" s="1"/>
+      <c r="C2">
+        <f>COUNTIFS(Sheet1!B:B,Sheet2!$A2,Sheet1!A:A,1)</f>
+        <v>2297</v>
+      </c>
+      <c r="D2">
+        <f>COUNTIFS(Sheet1!B:B,Sheet2!$A2,Sheet1!A:A,2)</f>
+        <v>4131</v>
+      </c>
+      <c r="E2">
+        <f>COUNTIFS(Sheet1!B:B,Sheet2!$A2,Sheet1!A:A,3)</f>
+        <v>119</v>
+      </c>
+      <c r="F2">
+        <f>COUNTIFS(Sheet1!B:B,Sheet2!$A2,Sheet1!A:A,4)</f>
+        <v>148</v>
+      </c>
+      <c r="G2">
+        <f>COUNTIFS(Sheet1!B:B,Sheet2!$A2,Sheet1!A:A,5)</f>
+        <v>4</v>
+      </c>
+      <c r="H2" s="1">
+        <f>B2/$B$8</f>
+        <v>0.8924860111910472</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -85818,7 +88706,30 @@
         <f>COUNTIF(Sheet1!B:B,Sheet2!A3)</f>
         <v>310</v>
       </c>
-      <c r="H3" s="1"/>
+      <c r="C3">
+        <f>COUNTIFS(Sheet1!B:B,Sheet2!A3,Sheet1!A:A,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <f>COUNTIFS(Sheet1!B:B,Sheet2!$A3,Sheet1!A:A,2)</f>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f>COUNTIFS(Sheet1!B:B,Sheet2!$A3,Sheet1!A:A,3)</f>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f>COUNTIFS(Sheet1!B:B,Sheet2!$A3,Sheet1!A:A,4)</f>
+        <v>310</v>
+      </c>
+      <c r="G3">
+        <f>COUNTIFS(Sheet1!B:B,Sheet2!$A3,Sheet1!A:A,5)</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <f t="shared" ref="H3:H7" si="0">B3/$B$8</f>
+        <v>4.1300293098854253E-2</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -85828,7 +88739,30 @@
         <f>COUNTIF(Sheet1!B:B,Sheet2!A4)</f>
         <v>83</v>
       </c>
-      <c r="H4" s="1"/>
+      <c r="C4">
+        <f>COUNTIFS(Sheet1!B:B,Sheet2!A4,Sheet1!A:A,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f>COUNTIFS(Sheet1!B:B,Sheet2!$A4,Sheet1!A:A,2)</f>
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <f>COUNTIFS(Sheet1!B:B,Sheet2!$A4,Sheet1!A:A,3)</f>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f>COUNTIFS(Sheet1!B:B,Sheet2!$A4,Sheet1!A:A,4)</f>
+        <v>72</v>
+      </c>
+      <c r="G4">
+        <f>COUNTIFS(Sheet1!B:B,Sheet2!$A4,Sheet1!A:A,5)</f>
+        <v>10</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1057820410338396E-2</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -85838,7 +88772,30 @@
         <f>COUNTIF(Sheet1!B:B,Sheet2!A5)</f>
         <v>43</v>
       </c>
-      <c r="H5" s="1"/>
+      <c r="C5">
+        <f>COUNTIFS(Sheet1!B:B,Sheet2!A5,Sheet1!A:A,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f>COUNTIFS(Sheet1!B:B,Sheet2!$A5,Sheet1!A:A,2)</f>
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f>COUNTIFS(Sheet1!B:B,Sheet2!$A5,Sheet1!A:A,3)</f>
+        <v>43</v>
+      </c>
+      <c r="F5">
+        <f>COUNTIFS(Sheet1!B:B,Sheet2!$A5,Sheet1!A:A,4)</f>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f>COUNTIFS(Sheet1!B:B,Sheet2!$A5,Sheet1!A:A,5)</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="0"/>
+        <v>5.72875033306688E-3</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -85848,49 +88805,95 @@
         <f>COUNTIF(Sheet1!B:B,Sheet2!A6)</f>
         <v>41</v>
       </c>
-      <c r="H6" s="1"/>
+      <c r="C6">
+        <f>COUNTIFS(Sheet1!B:B,Sheet2!A6,Sheet1!A:A,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <f>COUNTIFS(Sheet1!B:B,Sheet2!$A6,Sheet1!A:A,2)</f>
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f>COUNTIFS(Sheet1!B:B,Sheet2!$A6,Sheet1!A:A,3)</f>
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <f>COUNTIFS(Sheet1!B:B,Sheet2!$A6,Sheet1!A:A,4)</f>
+        <v>35</v>
+      </c>
+      <c r="G6">
+        <f>COUNTIFS(Sheet1!B:B,Sheet2!$A6,Sheet1!A:A,5)</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="0"/>
+        <v>5.4622968292033043E-3</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="B7">
-        <f>COUNTA(Sheet1!B:B)-1-SUM(Sheet2!B2:B6)</f>
-        <v>462</v>
-      </c>
-      <c r="H7" s="1"/>
+        <f>COUNTIF(Sheet1!B:B,Sheet2!A7)</f>
+        <v>330</v>
+      </c>
+      <c r="C7">
+        <f>COUNTIFS(Sheet1!B:B,Sheet2!A7,Sheet1!A:A,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <f>COUNTIFS(Sheet1!B:B,Sheet2!$A7,Sheet1!A:A,2)</f>
+        <v>318</v>
+      </c>
+      <c r="E7">
+        <f>COUNTIFS(Sheet1!B:B,Sheet2!$A7,Sheet1!A:A,3)</f>
+        <v>7</v>
+      </c>
+      <c r="F7">
+        <f>COUNTIFS(Sheet1!B:B,Sheet2!$A7,Sheet1!A:A,4)</f>
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <f>COUNTIFS(Sheet1!B:B,Sheet2!$A7,Sheet1!A:A,5)</f>
+        <v>2</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="0"/>
+        <v>4.396482813749001E-2</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B8" s="3">
-        <f>SUM(B2:B7)</f>
-        <v>7638</v>
+        <f t="shared" ref="B8:H8" si="1">SUM(B2:B7)</f>
+        <v>7506</v>
       </c>
       <c r="C8" s="3">
-        <f>SUM(C2:C7)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2297</v>
       </c>
       <c r="D8" s="3">
-        <f>SUM(D2:D7)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>4450</v>
       </c>
       <c r="E8" s="3">
-        <f>SUM(E2:E7)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>175</v>
       </c>
       <c r="F8" s="3">
-        <f>SUM(F2:F7)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>568</v>
       </c>
       <c r="G8" s="3">
-        <f>SUM(G2:G7)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>16</v>
       </c>
       <c r="H8" s="4">
-        <f>SUM(H2:H7)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -85903,7 +88906,7 @@
       </c>
       <c r="C12" s="1">
         <f>B12/B8</f>
-        <v>0.26289604608536266</v>
+        <v>0.26751931787903011</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -85916,7 +88919,7 @@
       </c>
       <c r="C13" s="1">
         <f>B13/B8</f>
-        <v>0.23631840796019901</v>
+        <v>0.24047428723687717</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -85929,7 +88932,7 @@
       </c>
       <c r="C14" s="1">
         <f>B14/B8</f>
-        <v>2.8279654359780047E-2</v>
+        <v>2.8776978417266189E-2</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -85981,6 +88984,1470 @@
         <v>0</v>
       </c>
       <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" t="s">
+        <v>91</v>
+      </c>
+      <c r="E32" t="s">
+        <v>92</v>
+      </c>
+      <c r="F32" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33">
+        <f>COUNTIFS(Sheet1!B:B,Sheet2!$A33,Sheet1!A:A,1)</f>
+        <v>2297</v>
+      </c>
+      <c r="C33">
+        <f>COUNTIFS(Sheet1!B:B,Sheet2!$A33,Sheet1!A:A,2)</f>
+        <v>4131</v>
+      </c>
+      <c r="D33">
+        <f>COUNTIFS(Sheet1!B:B,Sheet2!$A33,Sheet1!A:A,3)</f>
+        <v>119</v>
+      </c>
+      <c r="E33">
+        <f>COUNTIFS(Sheet1!B:B,Sheet2!$A33,Sheet1!A:A,4)</f>
+        <v>148</v>
+      </c>
+      <c r="F33">
+        <f>COUNTIFS(Sheet1!B:B,Sheet2!$A33,Sheet1!A:A,5)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34">
+        <f>COUNTIFS(Sheet1!B:B,Sheet2!A34,Sheet1!A:A,1)</f>
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <f>COUNTIFS(Sheet1!B:B,Sheet2!$A34,Sheet1!A:A,2)</f>
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <f>COUNTIFS(Sheet1!B:B,Sheet2!$A34,Sheet1!A:A,3)</f>
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <f>COUNTIFS(Sheet1!B:B,Sheet2!$A34,Sheet1!A:A,4)</f>
+        <v>310</v>
+      </c>
+      <c r="F34">
+        <f>COUNTIFS(Sheet1!B:B,Sheet2!$A34,Sheet1!A:A,5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35">
+        <f>COUNTIFS(Sheet1!B:B,Sheet2!A35,Sheet1!A:A,1)</f>
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <f>COUNTIFS(Sheet1!B:B,Sheet2!$A35,Sheet1!A:A,2)</f>
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <f>COUNTIFS(Sheet1!B:B,Sheet2!$A35,Sheet1!A:A,3)</f>
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <f>COUNTIFS(Sheet1!B:B,Sheet2!$A35,Sheet1!A:A,4)</f>
+        <v>72</v>
+      </c>
+      <c r="F35">
+        <f>COUNTIFS(Sheet1!B:B,Sheet2!$A35,Sheet1!A:A,5)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36">
+        <f>COUNTIFS(Sheet1!B:B,Sheet2!A36,Sheet1!A:A,1)</f>
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <f>COUNTIFS(Sheet1!B:B,Sheet2!$A36,Sheet1!A:A,2)</f>
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <f>COUNTIFS(Sheet1!B:B,Sheet2!$A36,Sheet1!A:A,3)</f>
+        <v>43</v>
+      </c>
+      <c r="E36">
+        <f>COUNTIFS(Sheet1!B:B,Sheet2!$A36,Sheet1!A:A,4)</f>
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <f>COUNTIFS(Sheet1!B:B,Sheet2!$A36,Sheet1!A:A,5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37">
+        <f>COUNTIFS(Sheet1!B:B,Sheet2!A37,Sheet1!A:A,1)</f>
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <f>COUNTIFS(Sheet1!B:B,Sheet2!$A37,Sheet1!A:A,2)</f>
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <f>COUNTIFS(Sheet1!B:B,Sheet2!$A37,Sheet1!A:A,3)</f>
+        <v>6</v>
+      </c>
+      <c r="E37">
+        <f>COUNTIFS(Sheet1!B:B,Sheet2!$A37,Sheet1!A:A,4)</f>
+        <v>35</v>
+      </c>
+      <c r="F37">
+        <f>COUNTIFS(Sheet1!B:B,Sheet2!$A37,Sheet1!A:A,5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38">
+        <f>COUNTIFS(Sheet1!B:B,Sheet2!A38,Sheet1!A:A,1)</f>
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <f>COUNTIFS(Sheet1!B:B,Sheet2!$A38,Sheet1!A:A,2)</f>
+        <v>318</v>
+      </c>
+      <c r="D38">
+        <f>COUNTIFS(Sheet1!B:B,Sheet2!$A38,Sheet1!A:A,3)</f>
+        <v>7</v>
+      </c>
+      <c r="E38">
+        <f>COUNTIFS(Sheet1!B:B,Sheet2!$A38,Sheet1!A:A,4)</f>
+        <v>3</v>
+      </c>
+      <c r="F38">
+        <f>COUNTIFS(Sheet1!B:B,Sheet2!$A38,Sheet1!A:A,5)</f>
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03A4265E-573B-3445-AF9C-55C15DFC0708}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F2B315A-1CCC-614A-A179-399F34183370}">
+  <dimension ref="A1:G30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>44</v>
+      </c>
+      <c r="C2">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A2,Sheet1!B:B,"buffer",Sheet1!A:A,1)</f>
+        <v>28</v>
+      </c>
+      <c r="D2">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A2,Sheet1!B:B,"buffer",Sheet1!A:A,2)</f>
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A2,Sheet1!B:B,"buffer",Sheet1!A:A,3)</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A2,Sheet1!B:B,"buffer",Sheet1!A:A,4)</f>
+        <v>16</v>
+      </c>
+      <c r="G2">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A2,Sheet1!B:B,"buffer",Sheet1!A:A,5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>27</v>
+      </c>
+      <c r="C3">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A3,Sheet1!B:B,"buffer",Sheet1!A:A,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A3,Sheet1!B:B,"buffer",Sheet1!A:A,2)</f>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A3,Sheet1!B:B,"buffer",Sheet1!A:A,3)</f>
+        <v>27</v>
+      </c>
+      <c r="F3">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A3,Sheet1!B:B,"buffer",Sheet1!A:A,4)</f>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A3,Sheet1!B:B,"buffer",Sheet1!A:A,5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4">
+        <v>75</v>
+      </c>
+      <c r="C4">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A4,Sheet1!B:B,"buffer",Sheet1!A:A,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A4,Sheet1!B:B,"buffer",Sheet1!A:A,2)</f>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A4,Sheet1!B:B,"buffer",Sheet1!A:A,3)</f>
+        <v>75</v>
+      </c>
+      <c r="F4">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A4,Sheet1!B:B,"buffer",Sheet1!A:A,4)</f>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A4,Sheet1!B:B,"buffer",Sheet1!A:A,5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A5,Sheet1!B:B,"buffer",Sheet1!A:A,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A5,Sheet1!B:B,"buffer",Sheet1!A:A,2)</f>
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A5,Sheet1!B:B,"buffer",Sheet1!A:A,3)</f>
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A5,Sheet1!B:B,"buffer",Sheet1!A:A,4)</f>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A5,Sheet1!B:B,"buffer",Sheet1!A:A,5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A6,Sheet1!B:B,"buffer",Sheet1!A:A,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A6,Sheet1!B:B,"buffer",Sheet1!A:A,2)</f>
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A6,Sheet1!B:B,"buffer",Sheet1!A:A,3)</f>
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A6,Sheet1!B:B,"buffer",Sheet1!A:A,4)</f>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A6,Sheet1!B:B,"buffer",Sheet1!A:A,5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A7,Sheet1!B:B,"buffer",Sheet1!A:A,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A7,Sheet1!B:B,"buffer",Sheet1!A:A,2)</f>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A7,Sheet1!B:B,"buffer",Sheet1!A:A,3)</f>
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A7,Sheet1!B:B,"buffer",Sheet1!A:A,4)</f>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A7,Sheet1!B:B,"buffer",Sheet1!A:A,5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A8,Sheet1!B:B,"buffer",Sheet1!A:A,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A8,Sheet1!B:B,"buffer",Sheet1!A:A,2)</f>
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A8,Sheet1!B:B,"buffer",Sheet1!A:A,3)</f>
+        <v>12</v>
+      </c>
+      <c r="F8">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A8,Sheet1!B:B,"buffer",Sheet1!A:A,4)</f>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A8,Sheet1!B:B,"buffer",Sheet1!A:A,5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9">
+        <v>1805</v>
+      </c>
+      <c r="C9">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A9,Sheet1!B:B,"buffer",Sheet1!A:A,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A9,Sheet1!B:B,"buffer",Sheet1!A:A,2)</f>
+        <v>1805</v>
+      </c>
+      <c r="E9">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A9,Sheet1!B:B,"buffer",Sheet1!A:A,3)</f>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A9,Sheet1!B:B,"buffer",Sheet1!A:A,4)</f>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A9,Sheet1!B:B,"buffer",Sheet1!A:A,5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10">
+        <v>2008</v>
+      </c>
+      <c r="C10">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A10,Sheet1!B:B,"buffer",Sheet1!A:A,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A10,Sheet1!B:B,"buffer",Sheet1!A:A,2)</f>
+        <v>2008</v>
+      </c>
+      <c r="E10">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A10,Sheet1!B:B,"buffer",Sheet1!A:A,3)</f>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A10,Sheet1!B:B,"buffer",Sheet1!A:A,4)</f>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A10,Sheet1!B:B,"buffer",Sheet1!A:A,5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A11,Sheet1!B:B,"buffer",Sheet1!A:A,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A11,Sheet1!B:B,"buffer",Sheet1!A:A,2)</f>
+        <v>14</v>
+      </c>
+      <c r="E11">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A11,Sheet1!B:B,"buffer",Sheet1!A:A,3)</f>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A11,Sheet1!B:B,"buffer",Sheet1!A:A,4)</f>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A11,Sheet1!B:B,"buffer",Sheet1!A:A,5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12">
+        <v>25</v>
+      </c>
+      <c r="C12">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A12,Sheet1!B:B,"buffer",Sheet1!A:A,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A12,Sheet1!B:B,"buffer",Sheet1!A:A,2)</f>
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A12,Sheet1!B:B,"buffer",Sheet1!A:A,3)</f>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A12,Sheet1!B:B,"buffer",Sheet1!A:A,4)</f>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A12,Sheet1!B:B,"buffer",Sheet1!A:A,5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13">
+        <v>158</v>
+      </c>
+      <c r="C13">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A13,Sheet1!B:B,"buffer",Sheet1!A:A,1)</f>
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A13,Sheet1!B:B,"buffer",Sheet1!A:A,2)</f>
+        <v>76</v>
+      </c>
+      <c r="E13">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A13,Sheet1!B:B,"buffer",Sheet1!A:A,3)</f>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A13,Sheet1!B:B,"buffer",Sheet1!A:A,4)</f>
+        <v>74</v>
+      </c>
+      <c r="G13">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A13,Sheet1!B:B,"buffer",Sheet1!A:A,5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14">
+        <v>208</v>
+      </c>
+      <c r="C14">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A14,Sheet1!B:B,"buffer",Sheet1!A:A,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A14,Sheet1!B:B,"buffer",Sheet1!A:A,2)</f>
+        <v>161</v>
+      </c>
+      <c r="E14">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A14,Sheet1!B:B,"buffer",Sheet1!A:A,3)</f>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A14,Sheet1!B:B,"buffer",Sheet1!A:A,4)</f>
+        <v>47</v>
+      </c>
+      <c r="G14">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A14,Sheet1!B:B,"buffer",Sheet1!A:A,5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15">
+        <v>16</v>
+      </c>
+      <c r="C15">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A15,Sheet1!B:B,"buffer",Sheet1!A:A,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A15,Sheet1!B:B,"buffer",Sheet1!A:A,2)</f>
+        <v>16</v>
+      </c>
+      <c r="E15">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A15,Sheet1!B:B,"buffer",Sheet1!A:A,3)</f>
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A15,Sheet1!B:B,"buffer",Sheet1!A:A,4)</f>
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A15,Sheet1!B:B,"buffer",Sheet1!A:A,5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16">
+        <v>1910</v>
+      </c>
+      <c r="C16">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A16,Sheet1!B:B,"buffer",Sheet1!A:A,1)</f>
+        <v>1910</v>
+      </c>
+      <c r="D16">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A16,Sheet1!B:B,"buffer",Sheet1!A:A,2)</f>
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A16,Sheet1!B:B,"buffer",Sheet1!A:A,3)</f>
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A16,Sheet1!B:B,"buffer",Sheet1!A:A,4)</f>
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A16,Sheet1!B:B,"buffer",Sheet1!A:A,5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17">
+        <v>28</v>
+      </c>
+      <c r="C17">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A17,Sheet1!B:B,"buffer",Sheet1!A:A,1)</f>
+        <v>28</v>
+      </c>
+      <c r="D17">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A17,Sheet1!B:B,"buffer",Sheet1!A:A,2)</f>
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A17,Sheet1!B:B,"buffer",Sheet1!A:A,3)</f>
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A17,Sheet1!B:B,"buffer",Sheet1!A:A,4)</f>
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A17,Sheet1!B:B,"buffer",Sheet1!A:A,5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A18,Sheet1!B:B,"buffer",Sheet1!A:A,1)</f>
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A18,Sheet1!B:B,"buffer",Sheet1!A:A,2)</f>
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A18,Sheet1!B:B,"buffer",Sheet1!A:A,3)</f>
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A18,Sheet1!B:B,"buffer",Sheet1!A:A,4)</f>
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A18,Sheet1!B:B,"buffer",Sheet1!A:A,5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A19,Sheet1!B:B,"buffer",Sheet1!A:A,1)</f>
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A19,Sheet1!B:B,"buffer",Sheet1!A:A,2)</f>
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A19,Sheet1!B:B,"buffer",Sheet1!A:A,3)</f>
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A19,Sheet1!B:B,"buffer",Sheet1!A:A,4)</f>
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A19,Sheet1!B:B,"buffer",Sheet1!A:A,5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20">
+        <v>84</v>
+      </c>
+      <c r="C20">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A20,Sheet1!B:B,"buffer",Sheet1!A:A,1)</f>
+        <v>84</v>
+      </c>
+      <c r="D20">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A20,Sheet1!B:B,"buffer",Sheet1!A:A,2)</f>
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A20,Sheet1!B:B,"buffer",Sheet1!A:A,3)</f>
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A20,Sheet1!B:B,"buffer",Sheet1!A:A,4)</f>
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A20,Sheet1!B:B,"buffer",Sheet1!A:A,5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21">
+        <v>23</v>
+      </c>
+      <c r="C21">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A21,Sheet1!B:B,"buffer",Sheet1!A:A,1)</f>
+        <v>23</v>
+      </c>
+      <c r="D21">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A21,Sheet1!B:B,"buffer",Sheet1!A:A,2)</f>
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A21,Sheet1!B:B,"buffer",Sheet1!A:A,3)</f>
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A21,Sheet1!B:B,"buffer",Sheet1!A:A,4)</f>
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A21,Sheet1!B:B,"buffer",Sheet1!A:A,5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22">
+        <v>23</v>
+      </c>
+      <c r="C22">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A22,Sheet1!B:B,"buffer",Sheet1!A:A,1)</f>
+        <v>19</v>
+      </c>
+      <c r="D22">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A22,Sheet1!B:B,"buffer",Sheet1!A:A,2)</f>
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A22,Sheet1!B:B,"buffer",Sheet1!A:A,3)</f>
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A22,Sheet1!B:B,"buffer",Sheet1!A:A,4)</f>
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A22,Sheet1!B:B,"buffer",Sheet1!A:A,5)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23">
+        <v>40</v>
+      </c>
+      <c r="C23">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A23,Sheet1!B:B,"buffer",Sheet1!A:A,1)</f>
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A23,Sheet1!B:B,"buffer",Sheet1!A:A,2)</f>
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A23,Sheet1!B:B,"buffer",Sheet1!A:A,3)</f>
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A23,Sheet1!B:B,"buffer",Sheet1!A:A,4)</f>
+        <v>11</v>
+      </c>
+      <c r="G23">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A23,Sheet1!B:B,"buffer",Sheet1!A:A,5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24">
+        <v>172</v>
+      </c>
+      <c r="C24">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A24,Sheet1!B:B,"buffer",Sheet1!A:A,1)</f>
+        <v>172</v>
+      </c>
+      <c r="D24">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A24,Sheet1!B:B,"buffer",Sheet1!A:A,2)</f>
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A24,Sheet1!B:B,"buffer",Sheet1!A:A,3)</f>
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A24,Sheet1!B:B,"buffer",Sheet1!A:A,4)</f>
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A24,Sheet1!B:B,"buffer",Sheet1!A:A,5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A25,Sheet1!B:B,"buffer",Sheet1!A:A,1)</f>
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A25,Sheet1!B:B,"buffer",Sheet1!A:A,2)</f>
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A25,Sheet1!B:B,"buffer",Sheet1!A:A,3)</f>
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A25,Sheet1!B:B,"buffer",Sheet1!A:A,4)</f>
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A25,Sheet1!B:B,"buffer",Sheet1!A:A,5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A26,Sheet1!B:B,"buffer",Sheet1!A:A,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A26,Sheet1!B:B,"buffer",Sheet1!A:A,2)</f>
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A26,Sheet1!B:B,"buffer",Sheet1!A:A,3)</f>
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A26,Sheet1!B:B,"buffer",Sheet1!A:A,4)</f>
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A26,Sheet1!B:B,"buffer",Sheet1!A:A,5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A27,Sheet1!B:B,"buffer",Sheet1!A:A,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A27,Sheet1!B:B,"buffer",Sheet1!A:A,2)</f>
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A27,Sheet1!B:B,"buffer",Sheet1!A:A,3)</f>
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A27,Sheet1!B:B,"buffer",Sheet1!A:A,4)</f>
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A27,Sheet1!B:B,"buffer",Sheet1!A:A,5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A28,Sheet1!B:B,"buffer",Sheet1!A:A,1)</f>
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A28,Sheet1!B:B,"buffer",Sheet1!A:A,2)</f>
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A28,Sheet1!B:B,"buffer",Sheet1!A:A,3)</f>
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A28,Sheet1!B:B,"buffer",Sheet1!A:A,4)</f>
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A28,Sheet1!B:B,"buffer",Sheet1!A:A,5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A29,Sheet1!B:B,"buffer",Sheet1!A:A,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A29,Sheet1!B:B,"buffer",Sheet1!A:A,2)</f>
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A29,Sheet1!B:B,"buffer",Sheet1!A:A,3)</f>
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A29,Sheet1!B:B,"buffer",Sheet1!A:A,4)</f>
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A29,Sheet1!B:B,"buffer",Sheet1!A:A,5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A30,Sheet1!B:B,"buffer",Sheet1!A:A,1)</f>
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A30,Sheet1!B:B,"buffer",Sheet1!A:A,2)</f>
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A30,Sheet1!B:B,"buffer",Sheet1!A:A,3)</f>
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A30,Sheet1!B:B,"buffer",Sheet1!A:A,4)</f>
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <f>COUNTIFS(Sheet1!C:C,Sheet4!A30,Sheet1!B:B,"buffer",Sheet1!A:A,5)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B3C48F2-C69B-B64E-AFA1-7BFE65B224DB}">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>28</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>16</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>27</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>75</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1805</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>2008</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>14</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>25</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>76</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>74</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>161</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>47</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>16</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13">
+        <v>1910</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14">
+        <v>28</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15">
+        <v>84</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16">
+        <v>23</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17">
+        <v>19</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>23</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>11</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19">
+        <v>172</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
         <v>0</v>
       </c>
     </row>
